--- a/biology/Histoire de la zoologie et de la botanique/Leopold_von_Buch/Leopold_von_Buch.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Leopold_von_Buch/Leopold_von_Buch.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le baron[3] Christian Léopold von Buch (Léopold de Buch) (26 avril 1774 à Stolpe (Uckermark)- 4 mars 1853, Berlin) est un géologue allemand. Il apporte des contributions importantes à la géologie de la première moitié du XIXe siècle.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le baron Christian Léopold von Buch (Léopold de Buch) (26 avril 1774 à Stolpe (Uckermark)- 4 mars 1853, Berlin) est un géologue allemand. Il apporte des contributions importantes à la géologie de la première moitié du XIXe siècle.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il visita le Vésuve, les volcans éteints de l'Auvergne, les Alpes et les montagnes de l'Allemagne, les îles scandinaves, les Hébrides, les îles Canaries (en compagnie de Christen Smith), fit faire de grands pas à la géologie et à la paléontologie, et fut, en récompense de ses services, nommé chambellan du roi de Prusse. En compagnie de Humboldt, il étudia avec Abraham Gottlob Werner, dont il adopta d'abord le neptunisme, mais se rallia ensuite au plutonisme et à la théorie des soulèvements. Il s'intéressa principalement au volcanisme, aux fossiles et à la stratigraphie. Il est connu de nos jours pour sa définition du Jurassique. 
 Il était membre de l'Académie de Berlin et associé de l'Institut de France. Il est devenu membre étranger de la Royal Society le 15 mai 1828. En 1842, il est lauréat de la médaille Wollaston
@@ -544,7 +558,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ses principaux travaux se trouvent consignés dans le recueil des Mémoires de l'Académie de Berlin.
 Description géognostique de la Silésie (1797) ;
